--- a/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
+++ b/validation/quercus/simulation_sp/produced_at_night_multi_quercus.xlsx
@@ -1,108 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>fluxes</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>robust</t>
-  </si>
-  <si>
-    <t>Sucrose__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Sucrose__Phellogen_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Nitrate__Ibark_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Leucine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Threonine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Valine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Glutamine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Glutamine__Ibark_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Glycine__Ibark_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Glycine__Phellogen_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Glutamate__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Asparagine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Asparagine__Ibark_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>L-Serine__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Fumarate__Leaf_Day_sp_exchange</t>
-  </si>
-  <si>
-    <t>Citrate__Leaf_Day_sp_exchange</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,317 +420,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>-0.0951346273521769</v>
-      </c>
-      <c r="C2">
-        <v>-0.3722650611465038</v>
-      </c>
-      <c r="D2">
-        <v>0.166599256037917</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>fluxes</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>minimum</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>maximum</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>robust</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Sucrose__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.08405333393287448</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.3721448240939824</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1656335502815443</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>-0.02797170741032262</v>
-      </c>
-      <c r="C3">
-        <v>-0.0280023109404035</v>
-      </c>
-      <c r="D3">
-        <v>0.02870815820910386</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Sucrose__Phellogen_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.0279719588455094</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.02797207713248671</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.02797207714731239</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>-0.2304245655886616</v>
-      </c>
-      <c r="C4">
-        <v>-0.230434431623385</v>
-      </c>
-      <c r="D4">
-        <v>-0.2301185531258961</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>L-Leucine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.0195399404094037</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.02531024408588362</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-0.0137696367329235</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-0.0195399404094037</v>
-      </c>
-      <c r="C5">
-        <v>-0.02531026889918562</v>
-      </c>
-      <c r="D5">
-        <v>-0.01370178855438009</v>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>L-Threonine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.05596265720822399</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.1042724067730612</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-0.007653100696934492</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>-0.0559627537378089</v>
-      </c>
-      <c r="C6">
-        <v>-0.1042929514523164</v>
-      </c>
-      <c r="D6">
-        <v>-0.007652675175430917</v>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>L-Valine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.0130256872811516</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.01687227891000502</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-0.009179095646881208</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>-0.0130256872811516</v>
-      </c>
-      <c r="C7">
-        <v>-0.01687229545101309</v>
-      </c>
-      <c r="D7">
-        <v>-0.00910581961847768</v>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.005717341279690275</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.005717341286201699</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.005717341237443146</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>-0.005717341279690275</v>
-      </c>
-      <c r="C8">
-        <v>-0.005750092084875185</v>
-      </c>
-      <c r="D8">
-        <v>-0.005715544477815176</v>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.002499638209620546</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.01125890891435994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.001967630884782928</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>-0.002499638209620549</v>
-      </c>
-      <c r="C9">
-        <v>-0.01152165778102737</v>
-      </c>
-      <c r="D9">
-        <v>-0.001966663393256125</v>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Glycine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.1960992969509003</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.196100419205215</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-0.1315056061773064</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>-0.1960994739343506</v>
-      </c>
-      <c r="C10">
-        <v>-0.1961684482052758</v>
-      </c>
-      <c r="D10">
-        <v>-0.1314316364183453</v>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Glycine__Phellogen_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.01806263237387565</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.01806263242738728</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.01806263225778107</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>-0.01806263238071823</v>
-      </c>
-      <c r="C11">
-        <v>-0.01822651519602971</v>
-      </c>
-      <c r="D11">
-        <v>-0.0180274656961558</v>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamate__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.12637405210593</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1263739931556609</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-0.126373992942112</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>-0.1263739929573012</v>
-      </c>
-      <c r="C12">
-        <v>-0.1276088401019158</v>
-      </c>
-      <c r="D12">
-        <v>-0.1261060205273183</v>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>L-Glutamate__Phellogen_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.1290006282161376</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.1722491020921041</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-0.03085188967902162</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>-0.1290001816227566</v>
-      </c>
-      <c r="C13">
-        <v>-0.1722620527355967</v>
-      </c>
-      <c r="D13">
-        <v>-0.03073848530103456</v>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>L-Asparagine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.0060052727868705</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.0060052727916789</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.006005272748749143</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>-0.0060052727868705</v>
-      </c>
-      <c r="C14">
-        <v>-0.006013986981168901</v>
-      </c>
-      <c r="D14">
-        <v>-0.005956726472296633</v>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>L-Asparagine__Ibark_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.0025165694863606</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.003052170600409174</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-0.001980968355569534</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>-0.0025165694863606</v>
-      </c>
-      <c r="C15">
-        <v>-0.003060086209056664</v>
-      </c>
-      <c r="D15">
-        <v>-0.001954828058832849</v>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>L-Serine__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.1138916878489108</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.2813216425701608</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-0.113891541686325</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16">
-        <v>-0.1138915417418062</v>
-      </c>
-      <c r="C16">
-        <v>-0.281341664754336</v>
-      </c>
-      <c r="D16">
-        <v>-0.1138196555251084</v>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Fumarate__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.4903538384967343</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.4903539350648473</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.4903539349216715</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17">
-        <v>-0.4903539350263207</v>
-      </c>
-      <c r="C17">
-        <v>-0.4904801099421938</v>
-      </c>
-      <c r="D17">
-        <v>-0.4903032679931432</v>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Citrate__Leaf_Day_sp_exchange</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.06791265277433978</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.0679124101684052</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.06791165432338632</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>-0.06791241013764998</v>
-      </c>
-      <c r="C18">
-        <v>-0.06793817596242824</v>
-      </c>
-      <c r="D18">
-        <v>-0.06710478773309192</v>
-      </c>
-      <c r="E18" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>